--- a/medicine/Enfance/Jeanette_Winterson/Jeanette_Winterson.xlsx
+++ b/medicine/Enfance/Jeanette_Winterson/Jeanette_Winterson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeanette Winterson, née le 27 août 1959 à Manchester, est une romancière britannique.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élevée à Accrington dans le Lancashire, au nord de l'Angleterre, Jeanette Winterson est surtout connue pour son roman Les oranges ne sont pas les seuls fruits (en). En partie autobiographique, elle y raconte son enfance dans une famille très religieuse et ses premières relations homosexuelles. Le ton du roman est parfois surréaliste, souvent d'un humour mordant. Adapté pour la télévision, il a eu un réel succès au Royaume-Uni, et a également été traduit en français et dans plusieurs autres langues.
-En 2018, dans le cadre du bicentenaire des sœurs Brontë et à la demande de la ville de Bradford, elle est invitée avec quatre autres artistes britanniques – Kate Bush, Carol Ann Duffy et Jackie Kay –, à écrire un poème pour orner une des douze pierres reliant la maison familiale des Brontë au presbytère de la famille. Son poème s’inspire de l'héritage de la fratrie[1].
+En 2018, dans le cadre du bicentenaire des sœurs Brontë et à la demande de la ville de Bradford, elle est invitée avec quatre autres artistes britanniques – Kate Bush, Carol Ann Duffy et Jackie Kay –, à écrire un poème pour orner une des douze pierres reliant la maison familiale des Brontë au presbytère de la famille. Son poème s’inspire de l'héritage de la fratrie.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans, essais
-Les oranges ne sont pas les seuls fruits, Des femmes, 1991 ((en) Oranges Are Not the Only Fruit, 1985)Réédition révisée, L'Olivier, 2012  (ISBN 978-2-87929-977-8) ; réédition, Points, coll. « Signatures » no P3033, 2013  (ISBN 978-2-7578-3386-5)
+          <t>Romans, essais</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les oranges ne sont pas les seuls fruits, Des femmes, 1991 ((en) Oranges Are Not the Only Fruit, 1985)Réédition révisée, L'Olivier, 2012  (ISBN 978-2-87929-977-8) ; réédition, Points, coll. « Signatures » no P3033, 2013  (ISBN 978-2-7578-3386-5)
 (en) Boating for Beginners, 1985
 (en) Fit For The Future: The Guide for Women Who Want to Live Well, 1986
 La Passion de Napoléon, Robert Laffont, 1989 ((en) The Passion, 1987), trad. Isabelle D. PhilippeRéédition révisée par Isabelle D. Philippe sous le titre La Passion, L'Olivier, 2013  (ISBN 978-2-8236-0232-6) ; réédition, Points no P4044, 2015  (ISBN 978-2-7578-4946-0)
@@ -564,16 +583,7 @@
 (en) Ingenious, 2009
 (en) The Daylight Gate, 2012
 La Faille du temps, Buchet/Chastel, 2019 ((en) The Gap of Time, 2015)
-Frankissstein, Alto, 2021 ((en) Frankissstein: A Love Story, 2019), trad. Céline Leroy
-Recueil de nouvelles
-(en) The World and Other Places, 1998
-(en) Christmas Days: 12 Stories and 12 Feasts for 12 Days, 2016
-Mémoires
-Pourquoi être heureux quand on peut être normal, L'Olivier, 2012 ((en) Why Be Happy When You Could Be Normal?, 2011)  (ISBN 978-2-87929-870-2)Réédition, Points no P3075, 2013  (ISBN 978-2-7578-3595-1)
-Littérature d'enfance et de jeunesse
-Le Roi de Capri, Gautier-Languereau, 2003 ((en) The King of Capri, 2003)  (ISBN 2-01-390983-7)
-L'Horloge du temps, Albin Michel, coll. « Wiz », 2007 ((en) Tanglewreck, 2006)  (ISBN 978-2-226-18005-6)
-(en) The Lion, The Unicorn and Me: The Donkey's Christmas Story, 2009</t>
+Frankissstein, Alto, 2021 ((en) Frankissstein: A Love Story, 2019), trad. Céline Leroy</t>
         </is>
       </c>
     </row>
@@ -598,10 +608,123 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The World and Other Places, 1998
+(en) Christmas Days: 12 Stories and 12 Feasts for 12 Days, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jeanette_Winterson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanette_Winterson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mémoires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pourquoi être heureux quand on peut être normal, L'Olivier, 2012 ((en) Why Be Happy When You Could Be Normal?, 2011)  (ISBN 978-2-87929-870-2)Réédition, Points no P3075, 2013  (ISBN 978-2-7578-3595-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jeanette_Winterson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanette_Winterson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Roi de Capri, Gautier-Languereau, 2003 ((en) The King of Capri, 2003)  (ISBN 2-01-390983-7)
+L'Horloge du temps, Albin Michel, coll. « Wiz », 2007 ((en) Tanglewreck, 2006)  (ISBN 978-2-226-18005-6)
+(en) The Lion, The Unicorn and Me: The Donkey's Christmas Story, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jeanette_Winterson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jeanette_Winterson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix Whitbread du premier roman pour Les Oranges ne sont pas les seuls fruits, en 1985
 Prix John Llewellyn Rhys pour La Passion de Napoléon, en 1987
